--- a/data_year/zb/人口/人口抽样调查样本数据/按年龄分男性人口数(人口抽样调查).xlsx
+++ b/data_year/zb/人口/人口抽样调查样本数据/按年龄分男性人口数(人口抽样调查).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1151 +543,701 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>35247</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33709</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42066</v>
+      </c>
+      <c r="E2" t="n">
+        <v>55243</v>
+      </c>
+      <c r="F2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="G2" t="n">
+        <v>41908</v>
+      </c>
+      <c r="H2" t="n">
+        <v>49570</v>
+      </c>
+      <c r="I2" t="n">
+        <v>54806</v>
+      </c>
+      <c r="J2" t="n">
+        <v>51434</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33242</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31821</v>
+      </c>
+      <c r="M2" t="n">
+        <v>36213</v>
+      </c>
+      <c r="N2" t="n">
+        <v>26688</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18064</v>
+      </c>
+      <c r="P2" t="n">
+        <v>14394</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9959</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5324</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1855</v>
+      </c>
+      <c r="T2" t="n">
+        <v>446</v>
+      </c>
+      <c r="U2" t="n">
+        <v>73</v>
+      </c>
       <c r="V2" t="n">
-        <v>642754</v>
+        <v>587039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34509</v>
+        <v>34694</v>
       </c>
       <c r="C3" t="n">
-        <v>59219</v>
+        <v>32370</v>
       </c>
       <c r="D3" t="n">
-        <v>54997</v>
+        <v>38909</v>
       </c>
       <c r="E3" t="n">
-        <v>40027</v>
+        <v>52033</v>
       </c>
       <c r="F3" t="n">
-        <v>46629</v>
+        <v>45257</v>
       </c>
       <c r="G3" t="n">
-        <v>61870</v>
+        <v>42539</v>
       </c>
       <c r="H3" t="n">
-        <v>61929</v>
+        <v>45524</v>
       </c>
       <c r="I3" t="n">
-        <v>46740</v>
+        <v>54913</v>
       </c>
       <c r="J3" t="n">
-        <v>47753</v>
+        <v>50563</v>
       </c>
       <c r="K3" t="n">
-        <v>44193</v>
+        <v>33252</v>
       </c>
       <c r="L3" t="n">
-        <v>41095</v>
+        <v>31554</v>
       </c>
       <c r="M3" t="n">
-        <v>29401</v>
+        <v>36136</v>
       </c>
       <c r="N3" t="n">
-        <v>23345</v>
+        <v>27928</v>
       </c>
       <c r="O3" t="n">
-        <v>20974</v>
+        <v>18728</v>
       </c>
       <c r="P3" t="n">
-        <v>15833</v>
+        <v>13991</v>
       </c>
       <c r="Q3" t="n">
-        <v>9033</v>
+        <v>10125</v>
       </c>
       <c r="R3" t="n">
-        <v>4137</v>
+        <v>5428</v>
       </c>
       <c r="S3" t="n">
-        <v>1330</v>
+        <v>1859</v>
       </c>
       <c r="T3" t="n">
-        <v>323</v>
+        <v>484</v>
       </c>
       <c r="U3" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V3" t="n">
-        <v>643400</v>
+        <v>576354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34089</v>
+        <v>34273</v>
       </c>
       <c r="C4" t="n">
-        <v>54921</v>
+        <v>31141</v>
       </c>
       <c r="D4" t="n">
-        <v>56583</v>
+        <v>36177</v>
       </c>
       <c r="E4" t="n">
-        <v>39164</v>
+        <v>50961</v>
       </c>
       <c r="F4" t="n">
-        <v>43530</v>
+        <v>46693</v>
       </c>
       <c r="G4" t="n">
-        <v>59010</v>
+        <v>41986</v>
       </c>
       <c r="H4" t="n">
-        <v>61490</v>
+        <v>43057</v>
       </c>
       <c r="I4" t="n">
-        <v>50558</v>
+        <v>53017</v>
       </c>
       <c r="J4" t="n">
-        <v>45320</v>
+        <v>49884</v>
       </c>
       <c r="K4" t="n">
-        <v>41433</v>
+        <v>33890</v>
       </c>
       <c r="L4" t="n">
-        <v>43875</v>
+        <v>35355</v>
       </c>
       <c r="M4" t="n">
-        <v>31459</v>
+        <v>35892</v>
       </c>
       <c r="N4" t="n">
-        <v>24266</v>
+        <v>29230</v>
       </c>
       <c r="O4" t="n">
-        <v>20110</v>
+        <v>19577</v>
       </c>
       <c r="P4" t="n">
-        <v>16095</v>
+        <v>13748</v>
       </c>
       <c r="Q4" t="n">
-        <v>9111</v>
+        <v>10054</v>
       </c>
       <c r="R4" t="n">
-        <v>4387</v>
+        <v>5759</v>
       </c>
       <c r="S4" t="n">
-        <v>1348</v>
+        <v>2104</v>
       </c>
       <c r="T4" t="n">
-        <v>355</v>
+        <v>555</v>
       </c>
       <c r="U4" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="V4" t="n">
-        <v>637167</v>
+        <v>573428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>499709</v>
+        <v>34484</v>
       </c>
       <c r="C5" t="n">
-        <v>721493</v>
+        <v>31616</v>
       </c>
       <c r="D5" t="n">
-        <v>749084</v>
+        <v>34584</v>
       </c>
       <c r="E5" t="n">
-        <v>499927</v>
+        <v>46891</v>
       </c>
       <c r="F5" t="n">
-        <v>539235</v>
+        <v>49801</v>
       </c>
       <c r="G5" t="n">
-        <v>711021</v>
+        <v>41777</v>
       </c>
       <c r="H5" t="n">
-        <v>813134</v>
+        <v>41761</v>
       </c>
       <c r="I5" t="n">
-        <v>732641</v>
+        <v>52086</v>
       </c>
       <c r="J5" t="n">
-        <v>575858</v>
+        <v>50455</v>
       </c>
       <c r="K5" t="n">
-        <v>577004</v>
+        <v>34326</v>
       </c>
       <c r="L5" t="n">
-        <v>622759</v>
+        <v>39470</v>
       </c>
       <c r="M5" t="n">
-        <v>462421</v>
+        <v>33781</v>
       </c>
       <c r="N5" t="n">
-        <v>342519</v>
+        <v>30781</v>
       </c>
       <c r="O5" t="n">
-        <v>286166</v>
+        <v>20573</v>
       </c>
       <c r="P5" t="n">
-        <v>224027</v>
+        <v>14528</v>
       </c>
       <c r="Q5" t="n">
-        <v>135684</v>
+        <v>10179</v>
       </c>
       <c r="R5" t="n">
-        <v>66132</v>
+        <v>5987</v>
       </c>
       <c r="S5" t="n">
-        <v>20475</v>
+        <v>2244</v>
       </c>
       <c r="T5" t="n">
-        <v>4785</v>
+        <v>581</v>
       </c>
       <c r="U5" t="n">
-        <v>810</v>
+        <v>106</v>
       </c>
       <c r="V5" t="n">
-        <v>8584882</v>
+        <v>576011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33121</v>
+        <v>668449</v>
       </c>
       <c r="C6" t="n">
-        <v>48057</v>
+        <v>598685</v>
       </c>
       <c r="D6" t="n">
-        <v>55481</v>
+        <v>626249</v>
       </c>
       <c r="E6" t="n">
-        <v>37271</v>
+        <v>809143</v>
       </c>
       <c r="F6" t="n">
-        <v>35868</v>
+        <v>1007144</v>
       </c>
       <c r="G6" t="n">
-        <v>45819</v>
+        <v>794090</v>
       </c>
       <c r="H6" t="n">
-        <v>56033</v>
+        <v>769056</v>
       </c>
       <c r="I6" t="n">
-        <v>57276</v>
+        <v>932187</v>
       </c>
       <c r="J6" t="n">
-        <v>38248</v>
+        <v>976048</v>
       </c>
       <c r="K6" t="n">
-        <v>38942</v>
+        <v>638535</v>
       </c>
       <c r="L6" t="n">
-        <v>45643</v>
+        <v>818405</v>
       </c>
       <c r="M6" t="n">
-        <v>34539</v>
+        <v>606808</v>
       </c>
       <c r="N6" t="n">
-        <v>24947</v>
+        <v>604925</v>
       </c>
       <c r="O6" t="n">
-        <v>20460</v>
+        <v>425036</v>
       </c>
       <c r="P6" t="n">
-        <v>16142</v>
+        <v>276332</v>
       </c>
       <c r="Q6" t="n">
-        <v>9850</v>
+        <v>195597</v>
       </c>
       <c r="R6" t="n">
-        <v>4604</v>
+        <v>111726</v>
       </c>
       <c r="S6" t="n">
-        <v>1561</v>
+        <v>44847</v>
       </c>
       <c r="T6" t="n">
-        <v>366</v>
+        <v>11838</v>
       </c>
       <c r="U6" t="n">
-        <v>75</v>
+        <v>1947</v>
       </c>
       <c r="V6" t="n">
-        <v>604303</v>
+        <v>10917046</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33163</v>
+        <v>36703</v>
       </c>
       <c r="C7" t="n">
-        <v>45342</v>
+        <v>32773</v>
       </c>
       <c r="D7" t="n">
-        <v>52436</v>
+        <v>33199</v>
       </c>
       <c r="E7" t="n">
-        <v>38520</v>
+        <v>41366</v>
       </c>
       <c r="F7" t="n">
-        <v>37245</v>
+        <v>54225</v>
       </c>
       <c r="G7" t="n">
-        <v>42623</v>
+        <v>44070</v>
       </c>
       <c r="H7" t="n">
-        <v>57121</v>
+        <v>40992</v>
       </c>
       <c r="I7" t="n">
-        <v>57649</v>
+        <v>48342</v>
       </c>
       <c r="J7" t="n">
-        <v>37944</v>
+        <v>53194</v>
       </c>
       <c r="K7" t="n">
-        <v>37275</v>
+        <v>34666</v>
       </c>
       <c r="L7" t="n">
-        <v>46624</v>
+        <v>49491</v>
       </c>
       <c r="M7" t="n">
-        <v>36982</v>
+        <v>30264</v>
       </c>
       <c r="N7" t="n">
-        <v>25948</v>
+        <v>33810</v>
       </c>
       <c r="O7" t="n">
-        <v>20296</v>
+        <v>23878</v>
       </c>
       <c r="P7" t="n">
-        <v>16385</v>
+        <v>15545</v>
       </c>
       <c r="Q7" t="n">
-        <v>10070</v>
+        <v>10744</v>
       </c>
       <c r="R7" t="n">
-        <v>4951</v>
+        <v>6446</v>
       </c>
       <c r="S7" t="n">
-        <v>1760</v>
+        <v>2613</v>
       </c>
       <c r="T7" t="n">
-        <v>332</v>
+        <v>630</v>
       </c>
       <c r="U7" t="n">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="V7" t="n">
-        <v>602740</v>
+        <v>593087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33352</v>
+        <v>36468</v>
       </c>
       <c r="C8" t="n">
-        <v>42560</v>
+        <v>32929</v>
       </c>
       <c r="D8" t="n">
-        <v>49438</v>
+        <v>32034</v>
       </c>
       <c r="E8" t="n">
-        <v>40003</v>
+        <v>38496</v>
       </c>
       <c r="F8" t="n">
-        <v>37497</v>
+        <v>51451</v>
       </c>
       <c r="G8" t="n">
-        <v>40627</v>
+        <v>44709</v>
       </c>
       <c r="H8" t="n">
-        <v>54028</v>
+        <v>41944</v>
       </c>
       <c r="I8" t="n">
-        <v>56636</v>
+        <v>44730</v>
       </c>
       <c r="J8" t="n">
-        <v>42061</v>
+        <v>53661</v>
       </c>
       <c r="K8" t="n">
-        <v>35314</v>
+        <v>34344</v>
       </c>
       <c r="L8" t="n">
-        <v>46290</v>
+        <v>48982</v>
       </c>
       <c r="M8" t="n">
-        <v>39294</v>
+        <v>30244</v>
       </c>
       <c r="N8" t="n">
-        <v>26778</v>
+        <v>34027</v>
       </c>
       <c r="O8" t="n">
-        <v>19823</v>
+        <v>25281</v>
       </c>
       <c r="P8" t="n">
-        <v>16556</v>
+        <v>15790</v>
       </c>
       <c r="Q8" t="n">
-        <v>10545</v>
+        <v>10774</v>
       </c>
       <c r="R8" t="n">
-        <v>5197</v>
+        <v>6660</v>
       </c>
       <c r="S8" t="n">
-        <v>1888</v>
+        <v>2758</v>
       </c>
       <c r="T8" t="n">
-        <v>375</v>
+        <v>660</v>
       </c>
       <c r="U8" t="n">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="V8" t="n">
-        <v>598339</v>
+        <v>586072</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33140</v>
+        <v>35887</v>
       </c>
       <c r="C9" t="n">
-        <v>39749</v>
+        <v>33775</v>
       </c>
       <c r="D9" t="n">
-        <v>44170</v>
+        <v>31552</v>
       </c>
       <c r="E9" t="n">
-        <v>44001</v>
+        <v>36085</v>
       </c>
       <c r="F9" t="n">
-        <v>37678</v>
+        <v>47710</v>
       </c>
       <c r="G9" t="n">
-        <v>38833</v>
+        <v>46843</v>
       </c>
       <c r="H9" t="n">
-        <v>52579</v>
+        <v>41517</v>
       </c>
       <c r="I9" t="n">
-        <v>55862</v>
+        <v>42557</v>
       </c>
       <c r="J9" t="n">
-        <v>45647</v>
+        <v>52108</v>
       </c>
       <c r="K9" t="n">
-        <v>34705</v>
+        <v>34279</v>
       </c>
       <c r="L9" t="n">
-        <v>42441</v>
+        <v>48939</v>
       </c>
       <c r="M9" t="n">
-        <v>39592</v>
+        <v>35208</v>
       </c>
       <c r="N9" t="n">
-        <v>28348</v>
+        <v>34092</v>
       </c>
       <c r="O9" t="n">
-        <v>20277</v>
+        <v>26974</v>
       </c>
       <c r="P9" t="n">
-        <v>16258</v>
+        <v>16905</v>
       </c>
       <c r="Q9" t="n">
-        <v>10997</v>
+        <v>10745</v>
       </c>
       <c r="R9" t="n">
-        <v>5178</v>
+        <v>6457</v>
       </c>
       <c r="S9" t="n">
-        <v>1971</v>
+        <v>2870</v>
       </c>
       <c r="T9" t="n">
-        <v>361</v>
+        <v>665</v>
       </c>
       <c r="U9" t="n">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="V9" t="n">
-        <v>591871</v>
+        <v>585299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35247</v>
+        <v>33361</v>
       </c>
       <c r="C10" t="n">
-        <v>33709</v>
+        <v>32530</v>
       </c>
       <c r="D10" t="n">
-        <v>42066</v>
+        <v>30261</v>
       </c>
       <c r="E10" t="n">
-        <v>55243</v>
+        <v>32854</v>
       </c>
       <c r="F10" t="n">
-        <v>44976</v>
+        <v>42186</v>
       </c>
       <c r="G10" t="n">
-        <v>41908</v>
+        <v>47285</v>
       </c>
       <c r="H10" t="n">
-        <v>49570</v>
+        <v>39256</v>
       </c>
       <c r="I10" t="n">
-        <v>54806</v>
+        <v>39234</v>
       </c>
       <c r="J10" t="n">
-        <v>51434</v>
+        <v>48652</v>
       </c>
       <c r="K10" t="n">
-        <v>33242</v>
+        <v>32709</v>
       </c>
       <c r="L10" t="n">
-        <v>31821</v>
+        <v>47045</v>
       </c>
       <c r="M10" t="n">
-        <v>36213</v>
+        <v>37183</v>
       </c>
       <c r="N10" t="n">
-        <v>26688</v>
+        <v>30468</v>
       </c>
       <c r="O10" t="n">
-        <v>18064</v>
+        <v>26967</v>
       </c>
       <c r="P10" t="n">
-        <v>14394</v>
+        <v>17291</v>
       </c>
       <c r="Q10" t="n">
-        <v>9959</v>
+        <v>10568</v>
       </c>
       <c r="R10" t="n">
-        <v>5324</v>
+        <v>6242</v>
       </c>
       <c r="S10" t="n">
-        <v>1855</v>
+        <v>2906</v>
       </c>
       <c r="T10" t="n">
-        <v>446</v>
+        <v>719</v>
       </c>
       <c r="U10" t="n">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="V10" t="n">
-        <v>587039</v>
+        <v>557834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34694</v>
+        <v>38288</v>
       </c>
       <c r="C11" t="n">
-        <v>32370</v>
+        <v>49345</v>
       </c>
       <c r="D11" t="n">
-        <v>38909</v>
+        <v>42677</v>
       </c>
       <c r="E11" t="n">
-        <v>52033</v>
+        <v>41020</v>
       </c>
       <c r="F11" t="n">
-        <v>45257</v>
+        <v>48189</v>
       </c>
       <c r="G11" t="n">
-        <v>42539</v>
+        <v>66101</v>
       </c>
       <c r="H11" t="n">
-        <v>45524</v>
+        <v>56115</v>
       </c>
       <c r="I11" t="n">
-        <v>54913</v>
+        <v>50206</v>
       </c>
       <c r="J11" t="n">
-        <v>50563</v>
+        <v>58320</v>
       </c>
       <c r="K11" t="n">
-        <v>33252</v>
+        <v>50970</v>
       </c>
       <c r="L11" t="n">
-        <v>31554</v>
+        <v>65216</v>
       </c>
       <c r="M11" t="n">
-        <v>36136</v>
+        <v>61237</v>
       </c>
       <c r="N11" t="n">
-        <v>27928</v>
+        <v>35357</v>
       </c>
       <c r="O11" t="n">
-        <v>18728</v>
+        <v>39951</v>
       </c>
       <c r="P11" t="n">
-        <v>13991</v>
+        <v>27247</v>
       </c>
       <c r="Q11" t="n">
-        <v>10125</v>
+        <v>16457</v>
       </c>
       <c r="R11" t="n">
-        <v>5428</v>
+        <v>10175</v>
       </c>
       <c r="S11" t="n">
-        <v>1859</v>
+        <v>5066</v>
       </c>
       <c r="T11" t="n">
-        <v>484</v>
+        <v>1643</v>
       </c>
       <c r="U11" t="n">
-        <v>66</v>
+        <v>263</v>
       </c>
       <c r="V11" t="n">
-        <v>576354</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>34273</v>
-      </c>
-      <c r="C12" t="n">
-        <v>31141</v>
-      </c>
-      <c r="D12" t="n">
-        <v>36177</v>
-      </c>
-      <c r="E12" t="n">
-        <v>50961</v>
-      </c>
-      <c r="F12" t="n">
-        <v>46693</v>
-      </c>
-      <c r="G12" t="n">
-        <v>41986</v>
-      </c>
-      <c r="H12" t="n">
-        <v>43057</v>
-      </c>
-      <c r="I12" t="n">
-        <v>53017</v>
-      </c>
-      <c r="J12" t="n">
-        <v>49884</v>
-      </c>
-      <c r="K12" t="n">
-        <v>33890</v>
-      </c>
-      <c r="L12" t="n">
-        <v>35355</v>
-      </c>
-      <c r="M12" t="n">
-        <v>35892</v>
-      </c>
-      <c r="N12" t="n">
-        <v>29230</v>
-      </c>
-      <c r="O12" t="n">
-        <v>19577</v>
-      </c>
-      <c r="P12" t="n">
-        <v>13748</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>10054</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5759</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2104</v>
-      </c>
-      <c r="T12" t="n">
-        <v>555</v>
-      </c>
-      <c r="U12" t="n">
-        <v>77</v>
-      </c>
-      <c r="V12" t="n">
-        <v>573428</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>34484</v>
-      </c>
-      <c r="C13" t="n">
-        <v>31616</v>
-      </c>
-      <c r="D13" t="n">
-        <v>34584</v>
-      </c>
-      <c r="E13" t="n">
-        <v>46891</v>
-      </c>
-      <c r="F13" t="n">
-        <v>49801</v>
-      </c>
-      <c r="G13" t="n">
-        <v>41777</v>
-      </c>
-      <c r="H13" t="n">
-        <v>41761</v>
-      </c>
-      <c r="I13" t="n">
-        <v>52086</v>
-      </c>
-      <c r="J13" t="n">
-        <v>50455</v>
-      </c>
-      <c r="K13" t="n">
-        <v>34326</v>
-      </c>
-      <c r="L13" t="n">
-        <v>39470</v>
-      </c>
-      <c r="M13" t="n">
-        <v>33781</v>
-      </c>
-      <c r="N13" t="n">
-        <v>30781</v>
-      </c>
-      <c r="O13" t="n">
-        <v>20573</v>
-      </c>
-      <c r="P13" t="n">
-        <v>14528</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>10179</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5987</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2244</v>
-      </c>
-      <c r="T13" t="n">
-        <v>581</v>
-      </c>
-      <c r="U13" t="n">
-        <v>106</v>
-      </c>
-      <c r="V13" t="n">
-        <v>576011</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>668449</v>
-      </c>
-      <c r="C14" t="n">
-        <v>598685</v>
-      </c>
-      <c r="D14" t="n">
-        <v>626249</v>
-      </c>
-      <c r="E14" t="n">
-        <v>809143</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1007144</v>
-      </c>
-      <c r="G14" t="n">
-        <v>794090</v>
-      </c>
-      <c r="H14" t="n">
-        <v>769056</v>
-      </c>
-      <c r="I14" t="n">
-        <v>932187</v>
-      </c>
-      <c r="J14" t="n">
-        <v>976048</v>
-      </c>
-      <c r="K14" t="n">
-        <v>638535</v>
-      </c>
-      <c r="L14" t="n">
-        <v>818405</v>
-      </c>
-      <c r="M14" t="n">
-        <v>606808</v>
-      </c>
-      <c r="N14" t="n">
-        <v>604925</v>
-      </c>
-      <c r="O14" t="n">
-        <v>425036</v>
-      </c>
-      <c r="P14" t="n">
-        <v>276332</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>195597</v>
-      </c>
-      <c r="R14" t="n">
-        <v>111726</v>
-      </c>
-      <c r="S14" t="n">
-        <v>44847</v>
-      </c>
-      <c r="T14" t="n">
-        <v>11838</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1947</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10917046</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>36703</v>
-      </c>
-      <c r="C15" t="n">
-        <v>32773</v>
-      </c>
-      <c r="D15" t="n">
-        <v>33199</v>
-      </c>
-      <c r="E15" t="n">
-        <v>41366</v>
-      </c>
-      <c r="F15" t="n">
-        <v>54225</v>
-      </c>
-      <c r="G15" t="n">
-        <v>44070</v>
-      </c>
-      <c r="H15" t="n">
-        <v>40992</v>
-      </c>
-      <c r="I15" t="n">
-        <v>48342</v>
-      </c>
-      <c r="J15" t="n">
-        <v>53194</v>
-      </c>
-      <c r="K15" t="n">
-        <v>34666</v>
-      </c>
-      <c r="L15" t="n">
-        <v>49491</v>
-      </c>
-      <c r="M15" t="n">
-        <v>30264</v>
-      </c>
-      <c r="N15" t="n">
-        <v>33810</v>
-      </c>
-      <c r="O15" t="n">
-        <v>23878</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15545</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>10744</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6446</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2613</v>
-      </c>
-      <c r="T15" t="n">
-        <v>630</v>
-      </c>
-      <c r="U15" t="n">
-        <v>134</v>
-      </c>
-      <c r="V15" t="n">
-        <v>593087</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>36468</v>
-      </c>
-      <c r="C16" t="n">
-        <v>32929</v>
-      </c>
-      <c r="D16" t="n">
-        <v>32034</v>
-      </c>
-      <c r="E16" t="n">
-        <v>38496</v>
-      </c>
-      <c r="F16" t="n">
-        <v>51451</v>
-      </c>
-      <c r="G16" t="n">
-        <v>44709</v>
-      </c>
-      <c r="H16" t="n">
-        <v>41944</v>
-      </c>
-      <c r="I16" t="n">
-        <v>44730</v>
-      </c>
-      <c r="J16" t="n">
-        <v>53661</v>
-      </c>
-      <c r="K16" t="n">
-        <v>34344</v>
-      </c>
-      <c r="L16" t="n">
-        <v>48982</v>
-      </c>
-      <c r="M16" t="n">
-        <v>30244</v>
-      </c>
-      <c r="N16" t="n">
-        <v>34027</v>
-      </c>
-      <c r="O16" t="n">
-        <v>25281</v>
-      </c>
-      <c r="P16" t="n">
-        <v>15790</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>10774</v>
-      </c>
-      <c r="R16" t="n">
-        <v>6660</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2758</v>
-      </c>
-      <c r="T16" t="n">
-        <v>660</v>
-      </c>
-      <c r="U16" t="n">
-        <v>131</v>
-      </c>
-      <c r="V16" t="n">
-        <v>586072</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>35887</v>
-      </c>
-      <c r="C17" t="n">
-        <v>33775</v>
-      </c>
-      <c r="D17" t="n">
-        <v>31552</v>
-      </c>
-      <c r="E17" t="n">
-        <v>36085</v>
-      </c>
-      <c r="F17" t="n">
-        <v>47710</v>
-      </c>
-      <c r="G17" t="n">
-        <v>46843</v>
-      </c>
-      <c r="H17" t="n">
-        <v>41517</v>
-      </c>
-      <c r="I17" t="n">
-        <v>42557</v>
-      </c>
-      <c r="J17" t="n">
-        <v>52108</v>
-      </c>
-      <c r="K17" t="n">
-        <v>34279</v>
-      </c>
-      <c r="L17" t="n">
-        <v>48939</v>
-      </c>
-      <c r="M17" t="n">
-        <v>35208</v>
-      </c>
-      <c r="N17" t="n">
-        <v>34092</v>
-      </c>
-      <c r="O17" t="n">
-        <v>26974</v>
-      </c>
-      <c r="P17" t="n">
-        <v>16905</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>10745</v>
-      </c>
-      <c r="R17" t="n">
-        <v>6457</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2870</v>
-      </c>
-      <c r="T17" t="n">
-        <v>665</v>
-      </c>
-      <c r="U17" t="n">
-        <v>131</v>
-      </c>
-      <c r="V17" t="n">
-        <v>585299</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>33361</v>
-      </c>
-      <c r="C18" t="n">
-        <v>32530</v>
-      </c>
-      <c r="D18" t="n">
-        <v>30261</v>
-      </c>
-      <c r="E18" t="n">
-        <v>32854</v>
-      </c>
-      <c r="F18" t="n">
-        <v>42186</v>
-      </c>
-      <c r="G18" t="n">
-        <v>47285</v>
-      </c>
-      <c r="H18" t="n">
-        <v>39256</v>
-      </c>
-      <c r="I18" t="n">
-        <v>39234</v>
-      </c>
-      <c r="J18" t="n">
-        <v>48652</v>
-      </c>
-      <c r="K18" t="n">
-        <v>32709</v>
-      </c>
-      <c r="L18" t="n">
-        <v>47045</v>
-      </c>
-      <c r="M18" t="n">
-        <v>37183</v>
-      </c>
-      <c r="N18" t="n">
-        <v>30468</v>
-      </c>
-      <c r="O18" t="n">
-        <v>26967</v>
-      </c>
-      <c r="P18" t="n">
-        <v>17291</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>10568</v>
-      </c>
-      <c r="R18" t="n">
-        <v>6242</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2906</v>
-      </c>
-      <c r="T18" t="n">
-        <v>719</v>
-      </c>
-      <c r="U18" t="n">
-        <v>117</v>
-      </c>
-      <c r="V18" t="n">
-        <v>557834</v>
+        <v>763842</v>
       </c>
     </row>
   </sheetData>
